--- a/Patching Schedule-2019-03.XLSX
+++ b/Patching Schedule-2019-03.XLSX
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1969,7 +1969,9 @@
       <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="29">
+        <v>43546.583333333336</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="25" t="s">
         <v>105</v>

--- a/Patching Schedule-2019-03.XLSX
+++ b/Patching Schedule-2019-03.XLSX
@@ -557,17 +557,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -587,7 +587,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -605,7 +605,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +685,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -802,6 +808,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1094,25 +1103,25 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="123.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="123.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="46.5" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
@@ -1157,7 +1166,6 @@
       <c r="D2" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="30" t="s">
         <v>105</v>
@@ -1172,7 +1180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="26" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>103</v>
       </c>
@@ -1312,7 +1320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
@@ -1340,7 +1348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="26" t="s">
         <v>23</v>
       </c>
@@ -1353,8 +1361,12 @@
       <c r="D9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="42">
+        <v>1</v>
+      </c>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
       <c r="G9" s="30" t="s">
         <v>105</v>
       </c>
@@ -1368,7 +1380,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -1396,7 +1408,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
@@ -1424,7 +1436,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1480,7 +1492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1508,7 +1520,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="24" t="s">
         <v>46</v>
       </c>
@@ -1592,7 +1604,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="24" t="s">
         <v>46</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +1716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1732,7 +1744,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="24" t="s">
         <v>133</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="24" t="s">
         <v>134</v>
       </c>
@@ -1816,7 +1828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
         <v>134</v>
       </c>
@@ -1844,7 +1856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="26" t="s">
         <v>9</v>
       </c>
@@ -1872,7 +1884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="26" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="24" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="24" t="s">
         <v>20</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="13" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="13" t="s">
         <v>47</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="13" t="s">
         <v>15</v>
       </c>
@@ -2096,7 +2108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -2152,7 +2164,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="13" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="13" t="s">
         <v>14</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="26" t="s">
         <v>4</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="A41" s="26" t="s">
         <v>4</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="13" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="26" t="s">
         <v>107</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="26" t="s">
         <v>107</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="26" t="s">
         <v>107</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>108</v>
       </c>
@@ -2404,7 +2416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="13" t="s">
         <v>108</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>
@@ -2491,14 +2503,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>65</v>
       </c>

--- a/Patching Schedule-2019-03.XLSX
+++ b/Patching Schedule-2019-03.XLSX
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="148">
   <si>
     <t>Service Name</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>bjbcmevutl01/shacmevutl01.cme.gbl</t>
+  </si>
+  <si>
+    <t>3/22/2019</t>
   </si>
 </sst>
 </file>
@@ -1102,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1361,7 +1364,9 @@
       <c r="D9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="42" t="s">
+        <v>147</v>
+      </c>
       <c r="F9" s="42"/>
       <c r="G9" s="30" t="s">
         <v>105</v>

--- a/Patching Schedule-2019-03.XLSX
+++ b/Patching Schedule-2019-03.XLSX
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="147">
   <si>
     <t>Service Name</t>
   </si>
@@ -551,26 +551,23 @@
   </si>
   <si>
     <t>bjbcmevutl01/shacmevutl01.cme.gbl</t>
-  </si>
-  <si>
-    <t>3/22/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -590,7 +587,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1105,26 +1102,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="123.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="123.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" customHeight="1">
+    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1153,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
@@ -1183,7 +1180,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>103</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>132</v>
       </c>
@@ -1351,7 +1348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>23</v>
       </c>
@@ -1364,9 +1361,7 @@
       <c r="D9" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>147</v>
-      </c>
+      <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="30" t="s">
         <v>105</v>
@@ -1381,7 +1376,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>23</v>
       </c>
@@ -1409,7 +1404,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1432,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1465,7 +1460,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>46</v>
       </c>
@@ -1605,7 +1600,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>46</v>
       </c>
@@ -1633,7 +1628,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1661,7 +1656,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1745,7 +1740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -1773,7 +1768,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>133</v>
       </c>
@@ -1801,7 +1796,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>134</v>
       </c>
@@ -1829,7 +1824,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>134</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>9</v>
       </c>
@@ -1870,7 +1865,9 @@
       <c r="D27" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="29"/>
+      <c r="E27" s="29">
+        <v>1</v>
+      </c>
       <c r="F27" s="29"/>
       <c r="G27" s="30" t="s">
         <v>105</v>
@@ -1885,7 +1882,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1895,9 @@
       <c r="D28" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="37">
+        <v>1</v>
+      </c>
       <c r="F28" s="37"/>
       <c r="G28" s="30" t="s">
         <v>105</v>
@@ -1913,7 +1912,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>20</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>19</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>15</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>47</v>
       </c>
@@ -2081,7 +2080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>14</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>14</v>
       </c>
@@ -2221,7 +2220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
         <v>107</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
         <v>107</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
         <v>107</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1">
+    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>108</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>108</v>
       </c>
@@ -2445,7 +2444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>
@@ -2504,14 +2503,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>

--- a/Patching Schedule-2019-03.XLSX
+++ b/Patching Schedule-2019-03.XLSX
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E29:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1981,7 +1981,9 @@
       <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="29"/>
+      <c r="E31" s="29">
+        <v>1</v>
+      </c>
       <c r="F31" s="29"/>
       <c r="G31" s="25" t="s">
         <v>105</v>

--- a/Patching Schedule-2019-03.XLSX
+++ b/Patching Schedule-2019-03.XLSX
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1981,9 +1981,7 @@
       <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="29">
-        <v>1</v>
-      </c>
+      <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="25" t="s">
         <v>105</v>
@@ -2039,7 +2037,9 @@
       <c r="D33" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="36">
+        <v>2</v>
+      </c>
       <c r="F33" s="36"/>
       <c r="G33" s="25" t="s">
         <v>105</v>
